--- a/PROJECT DEVELOPMENT PHASE/Performance Testing/Performance Testing - 00340.xlsx
+++ b/PROJECT DEVELOPMENT PHASE/Performance Testing/Performance Testing - 00340.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtpre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtpre\Desktop\IBM\REPORTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F41031-9E0B-4F6E-B49F-3C61D824D642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD4DEEB-A5EA-41AF-9AEC-8F211B70F54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{209F302D-D027-3045-82BB-D9422A64EC64}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>S.No</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Yes. Required Performance criteria like reliability and maintainability were met.</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -958,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA1AA74-9DAA-9D45-988A-F56D9E254887}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1189,29 +1192,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1224,6 +1230,7 @@
     <mergeCell ref="D14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">

--- a/PROJECT DEVELOPMENT PHASE/Performance Testing/Performance Testing - 00340.xlsx
+++ b/PROJECT DEVELOPMENT PHASE/Performance Testing/Performance Testing - 00340.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtpre\Desktop\IBM\REPORTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD4DEEB-A5EA-41AF-9AEC-8F211B70F54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADDA071-BE92-4853-8976-9EE287773DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{209F302D-D027-3045-82BB-D9422A64EC64}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>Hazardous Area Monitoring for Industrial Plants powered by IoT</t>
   </si>
   <si>
-    <t>As per deployment of Mobile Application</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Network dependencies</t>
   </si>
   <si>
-    <t>Approved</t>
-  </si>
-  <si>
     <t>Hazardous Area Monitoring using Sensor-cloud Technology and Remote sensing applications.</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Approved by Preethi Govindaraj</t>
+  </si>
+  <si>
+    <t>The design of the monitoring system is robust. Data throughput is handled well by the system. As per deployment of Mobile Application</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>5</v>
@@ -1026,7 +1026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1040,22 +1040,22 @@
         <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -1130,7 +1130,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="94.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1140,16 +1140,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="H12" s="18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1189,7 +1189,7 @@
         <v>36</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.5">
@@ -1197,28 +1197,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
